--- a/app_documentation/AdvancedFleetManagentSystem.xlsx
+++ b/app_documentation/AdvancedFleetManagentSystem.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Scheduling" sheetId="2" state="hidden" r:id="rId1"/>
     <sheet name="data_{unit.id}" sheetId="3" r:id="rId2"/>
-    <sheet name="data_{imei}" sheetId="1" r:id="rId3"/>
+    <sheet name="data_20161204" sheetId="4" r:id="rId3"/>
+    <sheet name="data_{imei}" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="374">
   <si>
     <t>Column Name</t>
   </si>
@@ -953,6 +954,201 @@
   </si>
   <si>
     <t>reserve</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>/s</t>
+  </si>
+  <si>
+    <t>m/s^2</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>"6546541541654562"</t>
+  </si>
+  <si>
+    <t>654654154.jpg</t>
+  </si>
+  <si>
+    <t>d_server</t>
+  </si>
+  <si>
+    <t>d_client</t>
+  </si>
+  <si>
+    <t>d_command</t>
+  </si>
+  <si>
+    <t>d_event</t>
+  </si>
+  <si>
+    <t>d_length</t>
+  </si>
+  <si>
+    <t>g_latitude</t>
+  </si>
+  <si>
+    <t>g_longitude</t>
+  </si>
+  <si>
+    <t>g_altitude</t>
+  </si>
+  <si>
+    <t>g_course</t>
+  </si>
+  <si>
+    <t>g_satellite</t>
+  </si>
+  <si>
+    <t>g_status</t>
+  </si>
+  <si>
+    <t>g_accuracy</t>
+  </si>
+  <si>
+    <t>c_signal</t>
+  </si>
+  <si>
+    <t>c_status</t>
+  </si>
+  <si>
+    <t>v_speed</t>
+  </si>
+  <si>
+    <t>v_odo</t>
+  </si>
+  <si>
+    <t>v_acc</t>
+  </si>
+  <si>
+    <t>v_sos</t>
+  </si>
+  <si>
+    <t>v_epc</t>
+  </si>
+  <si>
+    <t>v_rpm</t>
+  </si>
+  <si>
+    <t>v_accel</t>
+  </si>
+  <si>
+    <t>v_decel</t>
+  </si>
+  <si>
+    <t>v_alarm</t>
+  </si>
+  <si>
+    <t>v_tow</t>
+  </si>
+  <si>
+    <t>v_fuel</t>
+  </si>
+  <si>
+    <t>v_weight</t>
+  </si>
+  <si>
+    <t>v_relay1</t>
+  </si>
+  <si>
+    <t>v_relay2</t>
+  </si>
+  <si>
+    <t>v_relay3</t>
+  </si>
+  <si>
+    <t>v_relay4</t>
+  </si>
+  <si>
+    <t>v_door1</t>
+  </si>
+  <si>
+    <t>v_door2</t>
+  </si>
+  <si>
+    <t>v_door3</t>
+  </si>
+  <si>
+    <t>v_door4</t>
+  </si>
+  <si>
+    <t>v_seat1</t>
+  </si>
+  <si>
+    <t>v_seat2</t>
+  </si>
+  <si>
+    <t>v_seat3</t>
+  </si>
+  <si>
+    <t>v_seat4</t>
+  </si>
+  <si>
+    <t>v_tire1</t>
+  </si>
+  <si>
+    <t>v_tire2</t>
+  </si>
+  <si>
+    <t>v_tire3</t>
+  </si>
+  <si>
+    <t>v_tire4</t>
+  </si>
+  <si>
+    <t>v_runtime</t>
+  </si>
+  <si>
+    <t>v_motion</t>
+  </si>
+  <si>
+    <t>d_unit</t>
+  </si>
+  <si>
+    <t>Mvt100</t>
+  </si>
+  <si>
+    <t>d = data</t>
+  </si>
+  <si>
+    <t>u = unit</t>
+  </si>
+  <si>
+    <t>g = gps</t>
+  </si>
+  <si>
+    <t>c = gprs</t>
+  </si>
+  <si>
+    <t>v_mode</t>
+  </si>
+  <si>
+    <t>v_picture</t>
+  </si>
+  <si>
+    <t>v_ibutton</t>
+  </si>
+  <si>
+    <t>v = device</t>
+  </si>
+  <si>
+    <t>kilometer</t>
+  </si>
+  <si>
+    <t>v_batt</t>
+  </si>
+  <si>
+    <t>v_vcc</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1057,6 +1253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,7 +1414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1293,10 +1495,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1305,12 +1513,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="38" fontId="0" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1694,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1912,7 @@
     <col min="2" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
@@ -1945,7 +2153,7 @@
         <f>(M1*1000) / 1000</f>
         <v>0</v>
       </c>
-      <c r="N9" s="47" t="s">
+      <c r="N9" s="48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1963,8 +2171,8 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="L10" s="44"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1988,8 +2196,8 @@
         <v>2</v>
       </c>
       <c r="L11" s="44"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="48"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="50"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2019,7 +2227,7 @@
         <f>(M2*1000)/1000</f>
         <v>0</v>
       </c>
-      <c r="N12" s="47" t="s">
+      <c r="N12" s="48" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2043,8 +2251,8 @@
         <v>8</v>
       </c>
       <c r="L13" s="44"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="48"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="50"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2072,7 +2280,7 @@
         <f>(M12*31)/1000</f>
         <v>0</v>
       </c>
-      <c r="N14" s="47" t="s">
+      <c r="N14" s="48" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2096,8 +2304,8 @@
         <v>8</v>
       </c>
       <c r="L15" s="44"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="48"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2199,7 +2407,7 @@
         <f>(M1*2000) / 1000</f>
         <v>0</v>
       </c>
-      <c r="N20" s="47" t="s">
+      <c r="N20" s="48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2207,49 +2415,49 @@
       <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="37">
         <v>31</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41">
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37">
         <v>25</v>
       </c>
       <c r="L21" s="44"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="48"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="50"/>
       <c r="O21" s="32"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="41" t="s">
+      <c r="E22" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="37" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
       <c r="L22" s="44" t="s">
         <v>241</v>
       </c>
@@ -2257,7 +2465,7 @@
         <f>(M2*2000)/1000</f>
         <v>0</v>
       </c>
-      <c r="N22" s="47" t="s">
+      <c r="N22" s="48" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2275,8 +2483,8 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="L23" s="44"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="48"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -2302,7 +2510,7 @@
         <f>(M22*31)/1000</f>
         <v>0</v>
       </c>
-      <c r="N24" s="47" t="s">
+      <c r="N24" s="48" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2324,8 +2532,8 @@
       <c r="G25" s="34"/>
       <c r="H25" s="24"/>
       <c r="L25" s="44"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="48"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -2837,24 +3045,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="M9:M11"/>
     <mergeCell ref="N9:N11"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="N12:N13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2863,9 +3071,1116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" s="29">
+        <f>G24</f>
+        <v>0</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>8</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="31">
+        <f>(L1*20000)/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1454408654</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="32">
+        <f>L2*31</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="29">
+        <f>(L2*366)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="29">
+        <f>(L4*2000)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="K9" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="45">
+        <f>(L1*1000) / 1000</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="K12" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="45">
+        <f>(L2*1000)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="53">
+        <v>3</v>
+      </c>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53">
+        <v>2</v>
+      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="53">
+        <v>1</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" s="53">
+        <v>2</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="L14" s="45">
+        <f>(L12*31)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="53">
+        <v>31</v>
+      </c>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53">
+        <v>2</v>
+      </c>
+      <c r="K15" s="44"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C16" s="37">
+        <v>31</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>8</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="L20" s="45">
+        <f>(L1*2000) / 1000</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="32"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="5"/>
+      <c r="K22" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="L22" s="45">
+        <f>(L2*2000)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="5"/>
+      <c r="K24" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="45">
+        <f>(L22*31)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="5">
+        <v>11111111</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="5">
+        <v>11111111</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="K30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="5"/>
+      <c r="K31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="5"/>
+      <c r="I32" s="35"/>
+      <c r="K32" t="s">
+        <v>365</v>
+      </c>
+      <c r="S32" s="35"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="5">
+        <v>8</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="K33" t="s">
+        <v>366</v>
+      </c>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="I34" s="35"/>
+      <c r="K34" t="s">
+        <v>370</v>
+      </c>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="5"/>
+      <c r="I36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="I37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="54">
+        <v>39</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
+        <v>40</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="54">
+        <v>41</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="55"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="54">
+        <v>42</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="54">
+        <v>43</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="54">
+        <v>44</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="54">
+        <v>45</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="54">
+        <v>46</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="55"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="54">
+        <v>47</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="54">
+        <v>48</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="54">
+        <v>49</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="54">
+        <v>50</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3136,7 +4451,7 @@
         <f>(L1*1000) / 1000</f>
         <v>231</v>
       </c>
-      <c r="M9" s="47" t="s">
+      <c r="M9" s="48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3161,8 +4476,8 @@
         <v>25</v>
       </c>
       <c r="K10" s="44"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="48"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3187,7 +4502,7 @@
         <f>(L2*1000)/1000</f>
         <v>4.62</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="48" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3206,8 +4521,8 @@
         <v>8</v>
       </c>
       <c r="K12" s="44"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="48"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3236,7 +4551,7 @@
         <f>(L11*31)/1000</f>
         <v>0.14321999999999999</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="48" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3261,8 +4576,8 @@
         <v>8</v>
       </c>
       <c r="K14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="48"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="50"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -3369,7 +4684,7 @@
         <f>(L1*2000) / 1000</f>
         <v>462</v>
       </c>
-      <c r="M19" s="47" t="s">
+      <c r="M19" s="48" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3394,8 +4709,8 @@
         <v>8</v>
       </c>
       <c r="K20" s="44"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="48"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="50"/>
       <c r="N20" s="32"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -3419,7 +4734,7 @@
         <f>(L2*2000)/1000</f>
         <v>9.24</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" s="48" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3444,8 +4759,8 @@
         <v>8</v>
       </c>
       <c r="K22" s="44"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="48"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -3474,7 +4789,7 @@
         <f>(L21*31)/1000</f>
         <v>0.28643999999999997</v>
       </c>
-      <c r="M23" s="47" t="s">
+      <c r="M23" s="48" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3499,8 +4814,8 @@
         <v>8</v>
       </c>
       <c r="K24" s="44"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="48"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="50"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -3536,14 +4851,14 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -4732,14 +6047,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="49"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
@@ -5367,6 +6682,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
     <mergeCell ref="A96:F96"/>
     <mergeCell ref="A29:F29"/>
     <mergeCell ref="K19:K20"/>
@@ -5378,15 +6702,6 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
